--- a/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Thbs2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H2">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I2">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J2">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>47.174012646515</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N2">
-        <v>47.174012646515</v>
+        <v>1.104247</v>
       </c>
       <c r="O2">
-        <v>0.4188986365712714</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P2">
-        <v>0.4188986365712714</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q2">
-        <v>32.85541118489211</v>
+        <v>0.3601746978722222</v>
       </c>
       <c r="R2">
-        <v>32.85541118489211</v>
+        <v>3.24157228085</v>
       </c>
       <c r="S2">
-        <v>0.001678934403624448</v>
+        <v>1.418379376728413E-05</v>
       </c>
       <c r="T2">
-        <v>0.001678934403624448</v>
+        <v>1.4597587585132E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H3">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I3">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J3">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>62.4380552209324</v>
+        <v>67.415553</v>
       </c>
       <c r="N3">
-        <v>62.4380552209324</v>
+        <v>202.246659</v>
       </c>
       <c r="O3">
-        <v>0.5544412004591804</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P3">
-        <v>0.5544412004591804</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q3">
-        <v>43.48639987953798</v>
+        <v>65.96724220305001</v>
       </c>
       <c r="R3">
-        <v>43.48639987953798</v>
+        <v>593.70517982745</v>
       </c>
       <c r="S3">
-        <v>0.00222218533308446</v>
+        <v>0.00259781090768482</v>
       </c>
       <c r="T3">
-        <v>0.00222218533308446</v>
+        <v>0.002673598677245966</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.69647268361682</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H4">
-        <v>0.69647268361682</v>
+        <v>2.93555</v>
       </c>
       <c r="I4">
-        <v>0.004007972948698757</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J4">
-        <v>0.004007972948698757</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.0023178766533</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N4">
-        <v>3.0023178766533</v>
+        <v>188.369503</v>
       </c>
       <c r="O4">
-        <v>0.02666016296954829</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P4">
-        <v>0.02666016296954829</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q4">
-        <v>2.091032388623477</v>
+        <v>61.44089939240556</v>
       </c>
       <c r="R4">
-        <v>2.091032388623477</v>
+        <v>552.9680945316501</v>
       </c>
       <c r="S4">
-        <v>0.0001068532119898499</v>
+        <v>0.002419562093080452</v>
       </c>
       <c r="T4">
-        <v>0.0001068532119898499</v>
+        <v>0.002490149684273795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>161.709841340609</v>
+        <v>0.9785166666666667</v>
       </c>
       <c r="H5">
-        <v>161.709841340609</v>
+        <v>2.93555</v>
       </c>
       <c r="I5">
-        <v>0.930587350914844</v>
+        <v>0.005150408549089733</v>
       </c>
       <c r="J5">
-        <v>0.930587350914844</v>
+        <v>0.005259892016175551</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.174012646515</v>
+        <v>3.084311</v>
       </c>
       <c r="N5">
-        <v>47.174012646515</v>
+        <v>6.168622</v>
       </c>
       <c r="O5">
-        <v>0.4188986365712714</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P5">
-        <v>0.4188986365712714</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q5">
-        <v>7628.502100467823</v>
+        <v>3.018049718683333</v>
       </c>
       <c r="R5">
-        <v>7628.502100467823</v>
+        <v>18.1082983121</v>
       </c>
       <c r="S5">
-        <v>0.3898217725086995</v>
+        <v>0.0001188517545571758</v>
       </c>
       <c r="T5">
-        <v>0.3898217725086995</v>
+        <v>8.154606707065735E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H6">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I6">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J6">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>62.4380552209324</v>
+        <v>0.3680823333333333</v>
       </c>
       <c r="N6">
-        <v>62.4380552209324</v>
+        <v>1.104247</v>
       </c>
       <c r="O6">
-        <v>0.5544412004591804</v>
+        <v>0.002753916244137746</v>
       </c>
       <c r="P6">
-        <v>0.5544412004591804</v>
+        <v>0.002775263739301222</v>
       </c>
       <c r="Q6">
-        <v>10096.84800339316</v>
+        <v>65.166389129781</v>
       </c>
       <c r="R6">
-        <v>10096.84800339316</v>
+        <v>586.497502168029</v>
       </c>
       <c r="S6">
-        <v>0.5159559679733547</v>
+        <v>0.002566273059811972</v>
       </c>
       <c r="T6">
-        <v>0.5159559679733547</v>
+        <v>0.002641140753496936</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>161.709841340609</v>
+        <v>177.042969</v>
       </c>
       <c r="H7">
-        <v>161.709841340609</v>
+        <v>531.128907</v>
       </c>
       <c r="I7">
-        <v>0.930587350914844</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J7">
-        <v>0.930587350914844</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.0023178766533</v>
+        <v>67.415553</v>
       </c>
       <c r="N7">
-        <v>3.0023178766533</v>
+        <v>202.246659</v>
       </c>
       <c r="O7">
-        <v>0.02666016296954829</v>
+        <v>0.5043892893009331</v>
       </c>
       <c r="P7">
-        <v>0.02666016296954829</v>
+        <v>0.508299156907394</v>
       </c>
       <c r="Q7">
-        <v>485.5043474876792</v>
+        <v>11935.44965989686</v>
       </c>
       <c r="R7">
-        <v>485.5043474876792</v>
+        <v>107419.0469390717</v>
       </c>
       <c r="S7">
-        <v>0.02480961043278996</v>
+        <v>0.4700217908028535</v>
       </c>
       <c r="T7">
-        <v>0.02480961043278996</v>
+        <v>0.4837340679607894</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.3654884633482</v>
+        <v>177.042969</v>
       </c>
       <c r="H8">
-        <v>11.3654884633482</v>
+        <v>531.128907</v>
       </c>
       <c r="I8">
-        <v>0.06540467613645728</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J8">
-        <v>0.06540467613645728</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>47.174012646515</v>
+        <v>62.78983433333334</v>
       </c>
       <c r="N8">
-        <v>47.174012646515</v>
+        <v>188.369503</v>
       </c>
       <c r="O8">
-        <v>0.4188986365712714</v>
+        <v>0.4697806144928208</v>
       </c>
       <c r="P8">
-        <v>0.4188986365712714</v>
+        <v>0.473422206504607</v>
       </c>
       <c r="Q8">
-        <v>536.1556965038084</v>
+        <v>11116.49869339147</v>
       </c>
       <c r="R8">
-        <v>536.1556965038084</v>
+        <v>100048.4882405232</v>
       </c>
       <c r="S8">
-        <v>0.02739792965894753</v>
+        <v>0.437771242157842</v>
       </c>
       <c r="T8">
-        <v>0.02739792965894753</v>
+        <v>0.4505426513173804</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.3654884633482</v>
+        <v>177.042969</v>
       </c>
       <c r="H9">
-        <v>11.3654884633482</v>
+        <v>531.128907</v>
       </c>
       <c r="I9">
-        <v>0.06540467613645728</v>
+        <v>0.9318631477172884</v>
       </c>
       <c r="J9">
-        <v>0.06540467613645728</v>
+        <v>0.9516719856549357</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.4380552209324</v>
+        <v>3.084311</v>
       </c>
       <c r="N9">
-        <v>62.4380552209324</v>
+        <v>6.168622</v>
       </c>
       <c r="O9">
-        <v>0.5544412004591804</v>
+        <v>0.0230761799621083</v>
       </c>
       <c r="P9">
-        <v>0.5544412004591804</v>
+        <v>0.0155033728486976</v>
       </c>
       <c r="Q9">
-        <v>709.638996287405</v>
+        <v>546.055576759359</v>
       </c>
       <c r="R9">
-        <v>709.638996287405</v>
+        <v>3276.333460556154</v>
       </c>
       <c r="S9">
-        <v>0.03626304715274129</v>
+        <v>0.02150384169678085</v>
       </c>
       <c r="T9">
-        <v>0.03626304715274129</v>
+        <v>0.01475412562326887</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.182467</v>
+      </c>
+      <c r="I10">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J10">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.104247</v>
+      </c>
+      <c r="O10">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P10">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q10">
+        <v>0.02238762637211111</v>
+      </c>
+      <c r="R10">
+        <v>0.201488637349</v>
+      </c>
+      <c r="S10">
+        <v>8.816318227708724E-07</v>
+      </c>
+      <c r="T10">
+        <v>9.073522896548452E-07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H11">
+        <v>0.182467</v>
+      </c>
+      <c r="I11">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J11">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>67.415553</v>
+      </c>
+      <c r="N11">
+        <v>202.246659</v>
+      </c>
+      <c r="O11">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P11">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q11">
+        <v>4.100371236417001</v>
+      </c>
+      <c r="R11">
+        <v>36.903341127753</v>
+      </c>
+      <c r="S11">
+        <v>0.0001614739189904877</v>
+      </c>
+      <c r="T11">
+        <v>0.0001661847114990511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H12">
+        <v>0.182467</v>
+      </c>
+      <c r="I12">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J12">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N12">
+        <v>188.369503</v>
+      </c>
+      <c r="O12">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P12">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q12">
+        <v>3.819024233766779</v>
+      </c>
+      <c r="R12">
+        <v>34.37121810390101</v>
+      </c>
+      <c r="S12">
+        <v>0.0001503943848471704</v>
+      </c>
+      <c r="T12">
+        <v>0.00015478194629299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.06082233333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.182467</v>
+      </c>
+      <c r="I13">
+        <v>0.0003201374858976194</v>
+      </c>
+      <c r="J13">
+        <v>0.0003269427250482888</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>3.084311</v>
+      </c>
+      <c r="N13">
+        <v>6.168622</v>
+      </c>
+      <c r="O13">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P13">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q13">
+        <v>0.1875949917456667</v>
+      </c>
+      <c r="R13">
+        <v>1.125569950474</v>
+      </c>
+      <c r="S13">
+        <v>7.387550237190372E-06</v>
+      </c>
+      <c r="T13">
+        <v>5.068714966592847E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.042174</v>
+      </c>
+      <c r="H14">
+        <v>0.126522</v>
+      </c>
+      <c r="I14">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J14">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.104247</v>
+      </c>
+      <c r="O14">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P14">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q14">
+        <v>0.015523504326</v>
+      </c>
+      <c r="R14">
+        <v>0.139711538934</v>
+      </c>
+      <c r="S14">
+        <v>6.11320520864684E-07</v>
+      </c>
+      <c r="T14">
+        <v>6.291550055172186E-07</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="H10">
-        <v>11.3654884633482</v>
-      </c>
-      <c r="I10">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="J10">
-        <v>0.06540467613645728</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="N10">
-        <v>3.0023178766533</v>
-      </c>
-      <c r="O10">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="P10">
-        <v>0.02666016296954829</v>
-      </c>
-      <c r="Q10">
-        <v>34.12280919040715</v>
-      </c>
-      <c r="R10">
-        <v>34.12280919040715</v>
-      </c>
-      <c r="S10">
-        <v>0.001743699324768477</v>
-      </c>
-      <c r="T10">
-        <v>0.001743699324768477</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.042174</v>
+      </c>
+      <c r="H15">
+        <v>0.126522</v>
+      </c>
+      <c r="I15">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J15">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>67.415553</v>
+      </c>
+      <c r="N15">
+        <v>202.246659</v>
+      </c>
+      <c r="O15">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P15">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q15">
+        <v>2.843183532222</v>
+      </c>
+      <c r="R15">
+        <v>25.588651789998</v>
+      </c>
+      <c r="S15">
+        <v>0.0001119654687067496</v>
+      </c>
+      <c r="T15">
+        <v>0.0001152319162823028</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.042174</v>
+      </c>
+      <c r="H16">
+        <v>0.126522</v>
+      </c>
+      <c r="I16">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J16">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N16">
+        <v>188.369503</v>
+      </c>
+      <c r="O16">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P16">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q16">
+        <v>2.648098473174</v>
+      </c>
+      <c r="R16">
+        <v>23.832886258566</v>
+      </c>
+      <c r="S16">
+        <v>0.0001042829572450563</v>
+      </c>
+      <c r="T16">
+        <v>0.0001073252774961043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.042174</v>
+      </c>
+      <c r="H17">
+        <v>0.126522</v>
+      </c>
+      <c r="I17">
+        <v>0.00022198224879424</v>
+      </c>
+      <c r="J17">
+        <v>0.000226700978580015</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.084311</v>
+      </c>
+      <c r="N17">
+        <v>6.168622</v>
+      </c>
+      <c r="O17">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P17">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q17">
+        <v>0.130077732114</v>
+      </c>
+      <c r="R17">
+        <v>0.780466392684</v>
+      </c>
+      <c r="S17">
+        <v>5.12250232156938E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.514629796090582E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>11.8636825</v>
+      </c>
+      <c r="H18">
+        <v>23.727365</v>
+      </c>
+      <c r="I18">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J18">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.3680823333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.104247</v>
+      </c>
+      <c r="O18">
+        <v>0.002753916244137746</v>
+      </c>
+      <c r="P18">
+        <v>0.002775263739301222</v>
+      </c>
+      <c r="Q18">
+        <v>4.366811936525833</v>
+      </c>
+      <c r="R18">
+        <v>26.200871619155</v>
+      </c>
+      <c r="S18">
+        <v>0.0001719664382148536</v>
+      </c>
+      <c r="T18">
+        <v>0.0001179888909239821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>11.8636825</v>
+      </c>
+      <c r="H19">
+        <v>23.727365</v>
+      </c>
+      <c r="I19">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J19">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>67.415553</v>
+      </c>
+      <c r="N19">
+        <v>202.246659</v>
+      </c>
+      <c r="O19">
+        <v>0.5043892893009331</v>
+      </c>
+      <c r="P19">
+        <v>0.508299156907394</v>
+      </c>
+      <c r="Q19">
+        <v>799.7967163539225</v>
+      </c>
+      <c r="R19">
+        <v>4798.780298123535</v>
+      </c>
+      <c r="S19">
+        <v>0.03149624820269747</v>
+      </c>
+      <c r="T19">
+        <v>0.02161007364157729</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>11.8636825</v>
+      </c>
+      <c r="H20">
+        <v>23.727365</v>
+      </c>
+      <c r="I20">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J20">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>62.78983433333334</v>
+      </c>
+      <c r="N20">
+        <v>188.369503</v>
+      </c>
+      <c r="O20">
+        <v>0.4697806144928208</v>
+      </c>
+      <c r="P20">
+        <v>0.473422206504607</v>
+      </c>
+      <c r="Q20">
+        <v>744.9186587582659</v>
+      </c>
+      <c r="R20">
+        <v>4469.511952549595</v>
+      </c>
+      <c r="S20">
+        <v>0.0293351328998061</v>
+      </c>
+      <c r="T20">
+        <v>0.02012729827916374</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>11.8636825</v>
+      </c>
+      <c r="H21">
+        <v>23.727365</v>
+      </c>
+      <c r="I21">
+        <v>0.06244432399892993</v>
+      </c>
+      <c r="J21">
+        <v>0.04251447862526041</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>3.084311</v>
+      </c>
+      <c r="N21">
+        <v>6.168622</v>
+      </c>
+      <c r="O21">
+        <v>0.0230761799621083</v>
+      </c>
+      <c r="P21">
+        <v>0.0155033728486976</v>
+      </c>
+      <c r="Q21">
+        <v>36.5912864352575</v>
+      </c>
+      <c r="R21">
+        <v>146.36514574103</v>
+      </c>
+      <c r="S21">
+        <v>0.001440976458211505</v>
+      </c>
+      <c r="T21">
+        <v>0.0006591178135953969</v>
       </c>
     </row>
   </sheetData>
